--- a/ELEN100L_Project_1_Measured_Results_blank.xlsx
+++ b/ELEN100L_Project_1_Measured_Results_blank.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\ELEN\ELEN100L\Project_1\Project1StudentTemplates_MATLAB-3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="7425"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -30,7 +35,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -94,6 +99,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -141,7 +149,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,7 +184,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,7 +399,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
